--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_24_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_24_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12798.8151425707</v>
+        <v>2546964.213371568</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12798.8151425707</v>
+        <v>2546964.213371568</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28516.81229169582</v>
+        <v>1711589.46268935</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28516.81229169582</v>
+        <v>1711589.46268935</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1037573321.588406</v>
+        <v>43605581.45193814</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11103.28407014173</v>
+        <v>1230298.610153849</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19987.21075376412</v>
+        <v>2080087.420011145</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28871.13743738649</v>
+        <v>2929876.229868443</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>38456.70248049714</v>
+        <v>3706308.379315106</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>48148.25319550383</v>
+        <v>4505871.717512704</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>57246.747716277</v>
+        <v>5377943.945571607</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>66232.66525612558</v>
+        <v>6227613.354426514</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>75218.58279597416</v>
+        <v>7077282.763281421</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>84804.14783908481</v>
+        <v>7853714.91272808</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>94503.14710293649</v>
+        <v>8652720.472102204</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>104202.1463667882</v>
+        <v>9451726.031476332</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>113901.1456306399</v>
+        <v>10250731.59085047</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>123600.1448944915</v>
+        <v>11049737.1502246</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>133299.1441583432</v>
+        <v>11848742.70959874</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>143003.9986913374</v>
+        <v>12646663.91572567</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>217</v>
@@ -27055,10 +27055,10 @@
         <v>131</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>85</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>1230</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
